--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561FECBC-BA87-4608-9C4B-BDC7D5D084F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821264E5-1F3E-4B83-8198-1D12A1ED2EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{0BE83EB8-7BD6-406F-B233-5F0BACF18949}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{85AA70E6-DC82-41E7-A1E5-914F09F228EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C448CF9-5338-46A7-AD55-EE57D88E2C60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADF4446-8BC4-4DC5-BE4D-5F4D5B226C30}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821264E5-1F3E-4B83-8198-1D12A1ED2EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB289B2-0185-4337-A2EA-E0ED5CA39A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{85AA70E6-DC82-41E7-A1E5-914F09F228EC}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{FBF83D74-9294-4CCD-B579-9AB4841B7141}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADF4446-8BC4-4DC5-BE4D-5F4D5B226C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487E2288-7905-40FF-9C41-6F884ECB6032}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>25.219793202726809</v>
+        <v>7.9698022080113287</v>
       </c>
     </row>
   </sheetData>
